--- a/URS/DbLayouts/L8-遵循法令作業/JcicB096.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicB096.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0196BF90-4AD7-4CBF-A1CB-FAFCB9A4B67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AA0C53-D34E-41F8-8D98-09AAC84738EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="暫存檔Work_B096_All, Work_B096" sheetId="10" r:id="rId4"/>
     <sheet name="條件" sheetId="11" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$21</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="191">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -659,9 +656,6 @@
     <t xml:space="preserve">                       , O."LandSeq"</t>
   </si>
   <si>
-    <t xml:space="preserve">                       , O."OwnerId"</t>
-  </si>
-  <si>
     <t xml:space="preserve">                    FROM "ClLandOwner" O</t>
   </si>
   <si>
@@ -794,6 +788,15 @@
   <si>
     <t>土地序號</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                              AND L."LandSeq" = WK."LandSeq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       , C."CustId"  AS "OwnerId"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      LEFT JOIN "CustMain" C  ON  C."CustUKey"  = O."OwnerCustUKey"</t>
   </si>
 </sst>
 </file>
@@ -1134,6 +1137,42 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1145,42 +1184,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1201,29 +1204,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="暫存檔Work_B095_All, Work_B095"/>
-      <sheetName val="條件"/>
-      <sheetName val="更新欄位"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1549,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1560,18 +1540,18 @@
     <col min="3" max="3" width="27.5546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="8" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="32" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="65.5546875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="65.5546875" style="36" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="20" t="s">
         <v>72</v>
       </c>
@@ -1583,11 +1563,11 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="39"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1599,15 +1579,15 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1615,13 +1595,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -1629,48 +1609,48 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="41"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="41"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="18"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="41"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="18"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -1689,7 +1669,7 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="26" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -1698,7 +1678,7 @@
       <c r="I8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="31" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1719,11 +1699,11 @@
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34" t="s">
-        <v>165</v>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1743,17 +1723,17 @@
         <v>2</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="29">
         <v>1</v>
       </c>
-      <c r="J10" s="34" t="s">
-        <v>169</v>
+      <c r="J10" s="30" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1773,17 +1753,17 @@
         <v>3</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="29">
         <v>2</v>
       </c>
-      <c r="J11" s="34" t="s">
-        <v>168</v>
+      <c r="J11" s="30" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1803,17 +1783,17 @@
         <v>4</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="29">
         <v>3</v>
       </c>
-      <c r="J12" s="34" t="s">
-        <v>166</v>
+      <c r="J12" s="30" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1833,17 +1813,17 @@
         <v>2</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="29">
         <v>4</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>167</v>
+      <c r="J13" s="30" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1863,17 +1843,17 @@
         <v>50</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="29">
         <v>5</v>
       </c>
-      <c r="J14" s="34" t="s">
-        <v>170</v>
+      <c r="J14" s="30" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1881,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>25</v>
@@ -1893,15 +1873,15 @@
         <v>3</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>186</v>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -1921,17 +1901,17 @@
         <v>10</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="29">
         <v>6</v>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>171</v>
+      <c r="J16" s="30" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1950,17 +1930,17 @@
       <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="29">
         <v>7</v>
       </c>
-      <c r="J17" s="40" t="s">
-        <v>172</v>
+      <c r="J17" s="36" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1979,17 +1959,17 @@
       <c r="E18" s="9">
         <v>2</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="29">
         <v>8</v>
       </c>
-      <c r="J18" s="40" t="s">
-        <v>173</v>
+      <c r="J18" s="36" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2008,17 +1988,17 @@
       <c r="E19" s="9">
         <v>4</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="29">
         <v>9</v>
       </c>
-      <c r="J19" s="40" t="s">
-        <v>174</v>
+      <c r="J19" s="36" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2037,17 +2017,17 @@
       <c r="E20" s="9">
         <v>4</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="29">
         <v>10</v>
       </c>
-      <c r="J20" s="40" t="s">
-        <v>175</v>
+      <c r="J20" s="36" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2066,17 +2046,17 @@
       <c r="E21" s="9">
         <v>4</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="29">
         <v>11</v>
       </c>
-      <c r="J21" s="40" t="s">
-        <v>176</v>
+      <c r="J21" s="36" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="138" x14ac:dyDescent="0.3">
@@ -2095,14 +2075,14 @@
       <c r="E22" s="9">
         <v>1</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="29">
         <v>12</v>
       </c>
-      <c r="J22" s="40" t="s">
-        <v>177</v>
+      <c r="J22" s="36" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
@@ -2124,17 +2104,17 @@
       <c r="F23" s="9">
         <v>2</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="29">
         <v>13</v>
       </c>
-      <c r="J23" s="40" t="s">
-        <v>178</v>
+      <c r="J23" s="36" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -2153,14 +2133,14 @@
       <c r="E24" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="29">
         <v>14</v>
       </c>
-      <c r="J24" s="41" t="s">
-        <v>179</v>
+      <c r="J24" s="37" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="82.8" x14ac:dyDescent="0.3">
@@ -2179,14 +2159,14 @@
       <c r="E25" s="9">
         <v>2</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="29">
         <v>15</v>
       </c>
-      <c r="J25" s="40" t="s">
-        <v>180</v>
+      <c r="J25" s="36" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="69" x14ac:dyDescent="0.3">
@@ -2205,17 +2185,17 @@
       <c r="E26" s="9">
         <v>10</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="29">
         <v>16</v>
       </c>
-      <c r="J26" s="40" t="s">
-        <v>181</v>
+      <c r="J26" s="36" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="96.6" x14ac:dyDescent="0.3">
@@ -2234,14 +2214,14 @@
       <c r="E27" s="9">
         <v>5</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="29">
         <v>17</v>
       </c>
-      <c r="J27" s="40" t="s">
-        <v>182</v>
+      <c r="J27" s="36" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2260,17 +2240,17 @@
       <c r="E28" s="9">
         <v>30</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="29">
         <v>18</v>
       </c>
-      <c r="J28" s="34" t="s">
-        <v>167</v>
+      <c r="J28" s="30" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2290,17 +2270,17 @@
         <v>5</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="29">
         <v>19</v>
       </c>
-      <c r="J29" s="34" t="s">
-        <v>183</v>
+      <c r="J29" s="30" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2320,10 +2300,10 @@
         <v>8</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
@@ -2342,10 +2322,10 @@
         <v>6</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
@@ -2364,10 +2344,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
@@ -2386,10 +2366,10 @@
         <v>6</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
@@ -2532,247 +2512,247 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="136.109375" style="32" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="34" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="32" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="32" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="32" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="32" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="32" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="32" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="32" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="32" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="32" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="32" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="32" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="32" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="32" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="32" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="32" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="32" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="32" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2785,105 +2765,115 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7844570A-5892-4AFD-8A24-7F44D7A3CB17}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="136.109375" style="32" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="34" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
         <v>135</v>
       </c>
     </row>
